--- a/biology/Zoologie/Erythrolamprus_reginae/Erythrolamprus_reginae.xlsx
+++ b/biology/Zoologie/Erythrolamprus_reginae/Erythrolamprus_reginae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erythrolamprus reginae  est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erythrolamprus reginae  est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Guyane ;
 au Suriname ;
 au Guyana ;
@@ -554,9 +568,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un serpent ovipare[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un serpent ovipare.
 </t>
         </is>
       </c>
@@ -585,9 +601,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (9 août 2013)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (9 août 2013) :
 Erythrolamprus reginae macrosoma (Amaral, 1936)
 Erythrolamprus reginae reginae (Linnaeus, 1758)
 Erythrolamprus reginae semilineatus (Wagler, 1824)
@@ -619,7 +637,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Amaral, 1936 "1935" : Collecto herpetologica no centro do Brasil. Memórias do Instituto Butantan, vol. 9, p. 235-246.
 Linnaeus, 1758 : Systema naturae per regna tria naturae, secundum classes, ordines, genera, species, cum characteribus, differentiis, synonymis, locis, ed. 10 (texte intégral).
